--- a/Comandos/Tabela de comandos.xlsx
+++ b/Comandos/Tabela de comandos.xlsx
@@ -652,7 +652,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
